--- a/biology/Histoire de la zoologie et de la botanique/Clifford_Hillhouse_Pope/Clifford_Hillhouse_Pope.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Clifford_Hillhouse_Pope/Clifford_Hillhouse_Pope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clifford Hillhouse Pope est un herpétologiste américain, né le 11 avril 1899 à Washington (Géorgie) et mort le 3 juin 1974 à Escondido.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre à l’université de Géorgie en 1917 puis passe en 1919 à celle de Virginie où il obtient son Bachelor of Sciences en 1921. Il participe comme herpétologiste à une expédition de cinq ans en Chine (1921-1926) organisée par Roy Chapman Andrews (1884-1960) de l’American Museum of Natural History. Il explore d’abord le nord de la Chine, la Mongolie et le désert de Gobi. Il y découvre les premiers œufs connus de dinosaures. Entouré uniquement de chinois, il maîtrise bien leur langue. Il explore alors le sud de la Chine. Il constitue d’importantes collections où elles commencent à être décrite par Karl Patterson Schmidt (1890-1957).
 À son retour aux États-Unis, il fait paraître de nombreuses publications où il décrit les espèces récoltées ainsi que des articles destinés au grand public. En 1928, il devient conservateur assistant à l’American Museum of Natural History au sein du département d’herpétologie. Pope fait paraître The Reptiles of China en 1935 et, cette même année, est élu président de l’American Society of Ichthyologists and Herpetologists. Il perd son poste de conservateur, sans doute à cause d’un conflit de personnalité avec son directeur Gladwyn Kingsley Noble (1894-1940). C’est la période de la Grande Dépression et Pope, pour gagner sa vie, fait paraître plusieurs livres à destination du grand public : Snakes Alives and How They Live (1937), Turtles of the United States and Canada (1939) et China’s Animal Frontier (1940).
@@ -545,7 +559,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amolops chunganensis (Pope, 1929)
@@ -590,7 +606,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)</t>
         </is>
